--- a/report.xlsx
+++ b/report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t xml:space="preserve">Activity Report</t>
   </si>
@@ -52,211 +52,145 @@
     <t xml:space="preserve">Hours</t>
   </si>
   <si>
-    <t>2023-04-14</t>
-  </si>
-  <si>
-    <t>Reformat code'</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/698c1543bcbf11dd728c4f3bb5df7e3437e1d319</t>
-  </si>
-  <si>
-    <t>21:30 - 22:00</t>
-  </si>
-  <si>
-    <t>Fix invalid pomodoro start and end</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/e49161ee1cd00a24284da5b0a1223945da8322e8</t>
-  </si>
-  <si>
-    <t>2023-04-12</t>
-  </si>
-  <si>
-    <t>Add BaingaWagesCalculatorApplication class</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/5f91c969e9c03da7ec47791d812e71b930ae44b5</t>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>Update WhenAddingANewArticleTest assertion</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/6afd6917e9eea94f6aa493ed427b8122ae409f19</t>
+  </si>
+  <si>
+    <t>21:00 - 21:30</t>
+  </si>
+  <si>
+    <t>Make Article extends Entity</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/5aa141d4e59544fa9c870ecd7e028f37b9996ef1</t>
+  </si>
+  <si>
+    <t>Update Article.setDescription() method</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/183766c3c151e592d704b46c2679d9e996ffd21d</t>
+  </si>
+  <si>
+    <t>update Article.setName() method</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/8f950ad366991524a02e33223bbe246f96d54191</t>
+  </si>
+  <si>
+    <t>Reformat code</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/73ae172bbb3f98aad9849d47e05d0f8026da2824</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/c4609d5e38ae88fa176b19e5af1f766a92ead6c1</t>
+  </si>
+  <si>
+    <t>20:30 - 21:00</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/faee4d89d907f643ff376bd787058218c724d993</t>
+  </si>
+  <si>
+    <t>Add description field to Article class</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/0aaf8804771ab4c20f6c57ca39fa4eaee860fd52</t>
+  </si>
+  <si>
+    <t>Add price field to Article</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/f0b9d427a7916fcec6c6834a5c9d7042999fd124</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/ea9fd568b23f10385f3ca40a5214f8fd97e0735e</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/da11594571737489265c073bab42b2d224027973</t>
+  </si>
+  <si>
+    <t>Add numberOfItemsInStock field to Article</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/c94c1ade421d1ce01c7eb10864574c42e2ad2bb6</t>
+  </si>
+  <si>
+    <t>Update notification message</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/960d99f414fb1fa4fd68aba5f026d2eace5152ef</t>
   </si>
   <si>
     <t>20:00 - 20:30</t>
   </si>
   <si>
-    <t>Introduce parameter rate</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/9c111e72c3e3e4bec542de01e093998b081a182a</t>
+    <t>Rename WhenAddingAnArticleThatAlreadyExistsTest -&gt; WhenAddingAnArticleWithAnExistingNameTest</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/4493540afa66697b9e28f10392271a3ac2484dce</t>
+  </si>
+  <si>
+    <t>Extract ArticleData class</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/165c1e0598a88e9504c7400f198d1d2047520f57</t>
+  </si>
+  <si>
+    <t>Add find() method to ArticlesRepository</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/beab8d659edc4a3c43ecc2efeaa65fcf0f7320c0</t>
+  </si>
+  <si>
+    <t>Add hexagone-shared module</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/029da4eadc3359854a5c92474fc856a83dedc767</t>
   </si>
   <si>
     <t>19:30 - 20:00</t>
   </si>
   <si>
-    <t>Reformat code</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/9609276636699040d24be2f896883c12728bc460</t>
-  </si>
-  <si>
-    <t>Remove fields from BaingaWagesCalculator class</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/eec448bcbed09f25af89d504179c99908d079149</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/2419e69219daa1ef656b496c7551eb2294e89370</t>
-  </si>
-  <si>
-    <t>14:00 - 14:30</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>Reformat WhenThereIsMoreThanOnePomodoroTest</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/adf39109b2c38ca5ba2238d343dcb78da9ab959d</t>
-  </si>
-  <si>
-    <t>22:30 - 23:00</t>
-  </si>
-  <si>
-    <t>Make Commit fields final</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/e1767b298ce37759b1dcb5630221d10f23914161</t>
-  </si>
-  <si>
-    <t>Make commitRepository final</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/6688d13cec4f6d41088e7350f49b505dea5d27e1</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/b796505345482ba171342fd464883b1851488eb2</t>
-  </si>
-  <si>
-    <t>Remove pomodoroList from BaingaWagesCalculator class</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/42c25f762eaaf7a468950d966d23453c6bd96b37</t>
-  </si>
-  <si>
-    <t>Add date field to DailyTask</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/6fdc35a000164999f13dd82c9d7677c104de7c13</t>
-  </si>
-  <si>
-    <t>Add DailyTask class</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/bc6d3a57c9783578c48732eeeceae4512aca4ad9</t>
-  </si>
-  <si>
-    <t>22:00 - 22:30</t>
-  </si>
-  <si>
-    <t>Add Pomodoro.commits() method</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/d9383c7078b6a09a5615e4bc03434fcdc8dbbbc3</t>
-  </si>
-  <si>
-    <t>Fix wrong display name</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/acca3efd552a7cb9f44b9e4dfd985340085b4a9d</t>
-  </si>
-  <si>
-    <t>20:30 - 21:00</t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
-  </si>
-  <si>
-    <t>Rename test classes</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/ecf31ac7afa0f197673422c08068a8d6deffe944</t>
-  </si>
-  <si>
-    <t>23:00 - 23:30</t>
-  </si>
-  <si>
-    <t>Add WhenCommitTimeIsBetween0And30Test &amp; WhenCommitTimeIsBetween30And60Test tests</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/674f05a6184bf1f8109966cff89b97dcc25293ee</t>
-  </si>
-  <si>
-    <t>Add start and end fields to Pomodoro class</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/118e20a2c76adfe14b8925eb2647d59282471d2b</t>
-  </si>
-  <si>
-    <t>Add id, author, date, message fields to Commit class</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/de30a33e6a3a5a67c56a8e80ca76a7e2b27240f7</t>
-  </si>
-  <si>
-    <t>Rename DailyTask -&gt; Pomodoro</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/20b2cec1e4dcd2beb76ca37792f8e1951bc1c93a</t>
-  </si>
-  <si>
-    <t>Rename test</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/646bf48cf90c1725e457cab713e9f21e18341652</t>
-  </si>
-  <si>
-    <t>2023-04-03</t>
-  </si>
-  <si>
-    <t>Refactor createReport()</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/a46843aa6be7c8455eba66247c1dde2360e2c85d</t>
-  </si>
-  <si>
-    <t>Add commits field to DailyTask</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/3d9f0c6c1b833b9804b1a0bb7f89d2e2cc431e81</t>
-  </si>
-  <si>
-    <t>2023-03-30</t>
-  </si>
-  <si>
-    <t>Add rate field to BaingaWagesCalculator</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/5a74d55572373c4a75cf8816a66df0b462252875</t>
-  </si>
-  <si>
-    <t>Add hour spent assertion</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/e029ab801b748581100394579d86606f1349518e</t>
-  </si>
-  <si>
-    <t>Introduce numberOfPomodoro, hourSpent, wages, dalyTasks fields</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/e068dc7dcef20570e76954e1e70490450f77ffec</t>
-  </si>
-  <si>
-    <t>Add BaingaWagesCalculator &amp; DailyTesk classes</t>
-  </si>
-  <si>
-    <t>https://github.com/Panomba/bainga/commit/e9115bd9c0c00b16652c45bee154cfe9ccfdd22a</t>
+    <t>Add ArticlesRepository, Article, ArticleService classes</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/2335ca7a0bb303a8c213f2dd23264366bd848d4b</t>
+  </si>
+  <si>
+    <t>19:00 - 19:30</t>
+  </si>
+  <si>
+    <t>Add hexagone-articles-domain module</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/e36ad2cf15829bfc239d8a8e2cca98e8b9c2610b</t>
+  </si>
+  <si>
+    <t>Add hexagone-articles module</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/9518abd85eb6de71145417366e0fc71a73e6407b</t>
+  </si>
+  <si>
+    <t>Initialize maven project</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/8fc031e60ca16d0390a0dcd315017e70f1134e88</t>
+  </si>
+  <si>
+    <t>Initial template from amazon-codecatalyst-bot</t>
+  </si>
+  <si>
+    <t>https://github.com/Panomba/bainga/commit/0baf5087f5231ee6573162865719898d7f40c8b8</t>
+  </si>
+  <si>
+    <t>16:00 - 16:30</t>
   </si>
 </sst>
 </file>
@@ -366,7 +300,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -391,13 +325,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,7 +345,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>140000.0</v>
+        <v>60000.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,16 +401,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>0.5</v>
@@ -484,16 +418,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v>0.5</v>
@@ -501,16 +435,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
         <v>0.5</v>
@@ -518,16 +452,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
         <v>0.5</v>
@@ -535,16 +469,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
       <c r="E13" t="n">
         <v>0.5</v>
@@ -552,16 +486,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
         <v>0.5</v>
@@ -569,16 +503,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
         <v>0.5</v>
@@ -586,16 +520,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
         <v>0.5</v>
@@ -603,16 +537,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
         <v>0.5</v>
@@ -620,16 +554,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
         <v>0.5</v>
@@ -637,16 +571,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" t="n">
         <v>0.5</v>
@@ -654,16 +588,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
         <v>0.5</v>
@@ -671,16 +605,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E21" t="n">
         <v>0.5</v>
@@ -688,16 +622,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E22" t="n">
         <v>0.5</v>
@@ -705,16 +639,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
         <v>0.5</v>
@@ -722,16 +656,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
         <v>0.5</v>
@@ -739,16 +673,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
         <v>0.5</v>
@@ -756,16 +690,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>0.5</v>
@@ -773,16 +707,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" t="n">
         <v>0.5</v>
@@ -790,120 +724,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="n">
         <v>0.5</v>
       </c>
     </row>
